--- a/medicine/Mort/Décès_en_1963/Décès_en_1963.xlsx
+++ b/medicine/Mort/Décès_en_1963/Décès_en_1963.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1963</t>
+          <t>Décès_en_1963</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1963</t>
+          <t>Décès_en_1963</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,16 +540,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Date précise inconnue
-Henriette Bellair, peintre et illustratrice française (° 1904).
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Henriette Bellair, peintre et illustratrice française (° 1904).
 Maxime Clément, peintre et musicien français (° 4 mars 1877).
 Marie-Rose Dalmar, peintre française (° 1911).
 Stanisław Eleszkiewicz, peintre polonais (° 1900).
 Taamrat Emmanuel, homme politique éthiopien (° 1888).
 Abel Pann, peintre, lithographe et graveur israélien originaire de l'Empire russe (° 1er janvier 1883).
-Roger Parent, peintre français (° 21 août 1881).
-Janvier
-1er janvier : Helen Saunders, peintre britannique (° 4 avril 1885).
+Roger Parent, peintre français (° 21 août 1881).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1963</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1963</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Helen Saunders, peintre britannique (° 4 avril 1885).
 3 janvier : Albert Loriol, peintre français (° 21 octobre 1882).
 5 janvier : José Albuquerque, coureur cycliste portugais (° 20 septembre 1916).
 7 janvier : György Gál, un journaliste hongrois (º 14 juin 1912)
@@ -563,9 +614,43 @@
 29 janvier : Robert Frost, poète américain (° 26 mars 1874).
 30 janvier :
 Francis Poulenc, compositeur français (° 7 janvier 1899).
-Arno Vetterling, chef d'orchestre et compositeur allemand d'opérettes (° 26 mars 1903).
-Février
-1er février :
+Arno Vetterling, chef d'orchestre et compositeur allemand d'opérettes (° 26 mars 1903).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1963</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1963</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février :
 John Francis D'Alton, cardinal irlandais, archevêque d'Armagh (° 11 octobre 1882).
 Jean-Gabriel Noirot, peintre français (° 2 décembre 1887).
 Wyndham Standing, acteur anglais (° 23 août 1880).
@@ -590,9 +675,43 @@
 23 février : Robert Leroy Cochran, homme politique américain (° 28 janvier 1886).
 25 février : Albert Chanot, peintre et sculpteur français (° 13 mai 1881).
 27 février : Rajendra Prasad, homme d'État indien (° 3 décembre 1884).
-28 février : Bobby Jaspar, saxophoniste de jazz belge (° 20 février 1926).
-Mars
-1er mars : Felice Casorati, peintre italien (° 4 décembre 1883).
+28 février : Bobby Jaspar, saxophoniste de jazz belge (° 20 février 1926).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1963</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1963</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Felice Casorati, peintre italien (° 4 décembre 1883).
 3 mars : Faustino Pérez-Manglano, vénérable catholique espagnol (° 4 août 1946).
 5 mars :  Lutfi Al-Sayyid, journaliste et homme politique égyptien (° 15 janvier 1872).
 7 mars : Edmond Malherbe, compositeur français de musique classique (° 21 août 1870).
@@ -601,18 +720,86 @@
 18 mars : Franco Giorgetti, coureur cycliste italien (° 13 octobre 1902).
 25 mars : Ernest Johnson, joueur de hockey sur glace canadien (° 26 février 1886).
 28 mars : Antoine Balpêtré, acteur français (° 3 mai 1898).
-29 mars : Henry Bordeaux, avocat, romancier et essayiste français (° 25 janvier 1870).
-Avril
-1er avril : Camil Ressu, peintre roumain (° 28 janvier 1880).
+29 mars : Henry Bordeaux, avocat, romancier et essayiste français (° 25 janvier 1870).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1963</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1963</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Camil Ressu, peintre roumain (° 28 janvier 1880).
 6 avril : Otto Struve, astronome américain d'origine russe (° 12 août 1897).
 7 avril : Amedeo Maiuri, archéologue italien (° 7 janvier 1886).
 12 avril : Kazimierz Ajdukiewicz, philosophe polonais (° 12 décembre 1890).
 13 avril : Gabriel Fournier, peintre français (° 26 mai 1893).
 19 avril : Maurice Achener, peintre, graveur et illustrateur français (° 17 septembre 1881).
 22 avril : Jacques Camoreyt, peintre, graveur et illustrateur français (° 10 septembre 1871).
-23 avril : Myriam Astruc, archéologue française (° 12 novembre 1904).
-Mai
-1er mai : Paul Pouchol, céramiste, sculpteur et peintre français (° 21 juillet 1904).
+23 avril : Myriam Astruc, archéologue française (° 12 novembre 1904).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1963</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1963</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Paul Pouchol, céramiste, sculpteur et peintre français (° 21 juillet 1904).
 2 mai :
 Van Wyck Brooks, critique littéraitre et biographe américain (° 16 février 1886).
 Bobby De Ruymbeke, footballeur belge (° 15 janvier 1899).
@@ -630,9 +817,43 @@
 24 mai : Hugh Ragg, entrepreneur et homme politique fidjien (° 26 janvier 1882).
 25 mai : Mehdi Frashëri, homme politique albanais (° 28 février 1872).
 28 mai : Maria Costanza Panas, religieuse italienne, vénérable (° 5 janvier 1896).
-30 mai : Harry Lyon, navigateur marin et aérien américain (° 1885).
-Juin
-3 juin :
+30 mai : Harry Lyon, navigateur marin et aérien américain (° 1885).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1963</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1963</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3 juin :
 Jean-Georges Cornélius, peintre français (° 23 janvier 1880).
 Jean XXIII (Angelo Giuseppe Roncalli), pape italien (° 25 novembre 1881).
 4 juin : Sauveur Galliéro, peintre français (° 24 juillet 1914).
@@ -644,9 +865,43 @@
 11 juin : Thích Quảng Đức, bonze vietnamien, célèbre pour s'être immolé par le feu (° 1897).
 12 juin : Geza Szobel, peintre et graveur hongrois puis tchécoslovaque, naturalisé français (° 5 septembre 1905).
 13 juin : Apollon Torta, footballeur français (° 28 novembre 1896).
-25 juin : Robert Anderson, acteur américain d'origine danoise (° 22 juillet 1890).
-Juillet
-1 juillet : Camille Chautemps, homme politique français (° 1er février 1885).
+25 juin : Robert Anderson, acteur américain d'origine danoise (° 22 juillet 1890).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1963</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1963</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1 juillet : Camille Chautemps, homme politique français (° 1er février 1885).
 2 juillet : Luis Reñé, footballeur espagnol (° 1889).
 14 juillet: Étienne Gaudet, peintre, graveur et illustrateur français (° 6 décembre 1891).
 16 juillet : Antonio Donghi, peintre italien (° 16 mars 1897).
@@ -654,9 +909,43 @@
 20 juillet : Roman Dressler,  peintre austro-hongrois puis tchécoslovaque (° 20 août 1889).
 21 juillet : André Alexandre Verdilhan, sculpteur et peintre français (° 14 mars 1881).
 22 juillet : Valerio Valeri, cardinal italien de la curie romaine (° 7 novembre 1883).
-23 juillet : Alexandre Guerassimov, peintre russe puis soviétique (° 12 août 1881).
-Août
-1 août : Robert Gray, acteur et réalisateur américain (° 2 août 1881).
+23 juillet : Alexandre Guerassimov, peintre russe puis soviétique (° 12 août 1881).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1963</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1963</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1 août : Robert Gray, acteur et réalisateur américain (° 2 août 1881).
 5 août : Salvador Bacarisse, compositeur espagnol (° 12 septembre 1898).
 11 août : Clem Bevans, acteur américain (° 16 octobre 1879).
 13 août : Louis Bastien, coureur cycliste et escrimeur français (° 26 octobre 1881).
@@ -665,26 +954,128 @@
 26 août : Pierre Clemens, coureur cycliste luxembourgeois (° 2 août 1913).
 27 août : William Edward Burghardt Du Bois, sociologue américain (° 23 février 1868).
 29 août  : John Hein, lutteur américain (° 27 janvier 1886).
-31 août : Georges Braque,peintre, sculpteur et graveur français (° 13 mai 1882).
-Septembre
-4 septembre : Robert Schuman, homme d'État français (° 29 juin 1886).
+31 août : Georges Braque,peintre, sculpteur et graveur français (° 13 mai 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1963</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1963</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4 septembre : Robert Schuman, homme d'État français (° 29 juin 1886).
 5 septembre : Emil Dörflinger, coureur cycliste suisse (° 20 mai 1886).
 20 septembre : Allan Jeayes, acteur anglais (° 19 janvier 1885).
 23 septembre : Amalia Puga de Losada, femme de lettres péruvienne (° 8 septembre 1866).
 25 septembre : Germain Raingo-Pelouse, peintre français (° 28 août 1893).
 26 septembre  : Otto Christman, footballeur international canadien (° 20 avril 1880).
-? septembre : Auguste Clergé,  peintre, lithographe, illustrateur, décorateur de théâtre, acteur de théâtre, trapéziste, clown, fresquiste et graveur français (° 20 janvier 1891).
-Octobre
-2 octobre : Beniamino Joppolo, écrivain, romancier, dramaturge, essayiste, poète et peintre italien (° 31 juillet 1906).
+? septembre : Auguste Clergé,  peintre, lithographe, illustrateur, décorateur de théâtre, acteur de théâtre, trapéziste, clown, fresquiste et graveur français (° 20 janvier 1891).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1963</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1963</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre : Beniamino Joppolo, écrivain, romancier, dramaturge, essayiste, poète et peintre italien (° 31 juillet 1906).
 4 octobre : Janka Boga, écrivaine et pédagogue hongroise (° 31 janvier 1886).
 10 octobre : Édith Piaf, chanteuse française (° 19 décembre 1915).
 11 octobre : Jean Cocteau, écrivain, cinéaste et dessinateur français (° 5 juillet 1889).
 25 octobre : Roger Désormière, chef d'orchestre et compositeur français (° 13 septembre 1898).
 28 octobre : Émile Bulcke, peintre et sculpteur belge (° 20 mars 1875).
 30 octobre : Arthur Schlageter, sculpteur et peintre suisse (° 11 décembre 1883).
-31 octobre : Henry Daniell, acteur britannique  (° 5 mars 1894).
-Novembre
-5 novembre : Mathieu Buntincx, homme politique belge (° 30 mars 1888).
+31 octobre : Henry Daniell, acteur britannique  (° 5 mars 1894).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1963</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1963</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>5 novembre : Mathieu Buntincx, homme politique belge (° 30 mars 1888).
 6 novembre : Georges Pavec, peintre français (° 9 mars 1875).
 9 novembre : Ba U, homme d'État birman (° 26 mai 1887).
 17 novembre : Kenneth Kent, acteur britannique (° 20 avril 1892).
@@ -698,9 +1089,43 @@
 29 novembre : Ernesto Lecuona, compositeur et pianiste cubain (° 6 août 1895).
 30 novembre :
 Laudelino Mejías, musicien et compositeur vénézuélien (° 29 août 1893).
-Cyril Newall, militaire et homme politique britannique (° 15 février 1886).
-Décembre
-2 décembre : George Brett, général américain (° 7 février 1886).
+Cyril Newall, militaire et homme politique britannique (° 15 février 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1963</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1963</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : George Brett, général américain (° 7 février 1886).
 5 décembre :
 Karl Amadeus Hartmann, compositeur allemand (° 2 août 1905).
 Herbert H. Lehman, homme politique américain (° 28 mars 1878).
